--- a/Egresos_Agregados.xlsx
+++ b/Egresos_Agregados.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Direccion</t>
-  </si>
-  <si>
-    <t>Contacto</t>
-  </si>
-  <si>
-    <t>Telefono</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+  <si>
+    <t>Proveedor</t>
   </si>
   <si>
     <t>Importe</t>
@@ -37,28 +28,28 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>transporte</t>
-  </si>
-  <si>
-    <t>papel</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>TRANSPORTE DE DOS PALETS</t>
-  </si>
-  <si>
-    <t>COMPRA DE 10 PALETS</t>
+    <t>TRANSPORTE NORTE</t>
+  </si>
+  <si>
+    <t>NAFTA</t>
+  </si>
+  <si>
+    <t>&lt;SSD</t>
+  </si>
+  <si>
+    <t>SDFVC</t>
+  </si>
+  <si>
+    <t>CARGA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -111,11 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,13 +402,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,94 +421,75 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2">
+        <v>1431432</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45500.07909626157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1431432</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45500.0792178125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1431432</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45500.08000621528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45500.083205625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>40000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>90000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>1000000000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>19890</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>10000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
+      <c r="D6" s="2">
+        <v>45500.08508982933</v>
       </c>
     </row>
   </sheetData>
